--- a/biology/Médecine/Pierre_Tarin/Pierre_Tarin.xlsx
+++ b/biology/Médecine/Pierre_Tarin/Pierre_Tarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Tarin, né en 1725 à Courtenay et mort en 1761, est un médecin et anatomiste français.
 Tarin étudia la médecine dans les écoles de la Faculté de Paris, mais il n’y prit d’autre degré que celui de bachelier. Il laissa beaucoup d’ouvrages dont la plupart concernent l’anatomie. C’est à lui qu’on doit tout ce qui se trouve sur cette science dans l’Encyclopédie de Diderot et D'Alembert ; il y a même inséré un discours sur l’origine et les progrès de cette partie de la médecine.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(la)Problemata anatomica, utrum inter arterias mesentericas, venasqne lacteas, immediatum datur commercium, Parisiis , 1748. in-8°.L’auteur y soutient l’affirmative.
 Anthropotomie, ou l’art de disséquer, Paris, 1750, deux vol. in-12.Ce traité contient diverses remarques sur la structure des parties.
@@ -553,7 +567,9 @@
           <t>Articles de l'Encyclopédie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Bile », t. II, p. 249b, 218 l.
 « Dents », t. IV, 320 l.</t>
@@ -584,7 +600,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Laurent Jessé Bayle, Biographie médicale, t. 2, Paris : Adolphe Delahaye, 1855, p. 738.
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Belgique Vatican WorldCat 
